--- a/MOEA/GPS_20_Hubs.xlsx
+++ b/MOEA/GPS_20_Hubs.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KernInternship\Geodata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkern\Documents\GitHub\BETO\MOEA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18C87CCF-4942-4238-81BA-CB6C88827625}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EE4C40D8-384C-4DB6-B71C-E5363738ED8A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>hub</t>
   </si>
@@ -42,70 +41,16 @@
     <t>group</t>
   </si>
   <si>
-    <t>GPS</t>
+    <t>Latitude</t>
   </si>
   <si>
-    <t>101.6765466°W 47.2910174°N</t>
-  </si>
-  <si>
-    <t>97.2268940°W 45.7340502°N</t>
-  </si>
-  <si>
-    <t>94.4974182°W 46.4894676°N</t>
-  </si>
-  <si>
-    <t>91.4167541°W 45.8976095°N</t>
-  </si>
-  <si>
-    <t>87.5612592°W 45.4103375°N</t>
-  </si>
-  <si>
-    <t>83.5768977°W 43.4846509°N</t>
-  </si>
-  <si>
-    <t>85.8479310°W 42.5888293°N</t>
-  </si>
-  <si>
-    <t>82.5065139°W 39.9590101°N</t>
-  </si>
-  <si>
-    <t>86.0151217°W 40.0408225°N</t>
-  </si>
-  <si>
-    <t>89.1455236°W 40.8423769°N</t>
-  </si>
-  <si>
-    <t>88.6071352°W 38.3702014°N</t>
-  </si>
-  <si>
-    <t>91.9169699°W 41.5867864°N</t>
-  </si>
-  <si>
-    <t>92.7516341°W 37.4255147°N</t>
-  </si>
-  <si>
-    <t>92.8529668°W 39.3810766°N</t>
-  </si>
-  <si>
-    <t>95.1638624°W 42.4938897°N</t>
-  </si>
-  <si>
-    <t>96.5397579°W 39.2061797°N</t>
-  </si>
-  <si>
-    <t>99.9107239°W 38.4209992°N</t>
-  </si>
-  <si>
-    <t>100.5003664°W 41.4560446°N</t>
-  </si>
-  <si>
-    <t>100.4832317°W 43.8884404°N</t>
+    <t>Longitude</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -450,16 +395,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70FBB56-F2F1-4E4B-A81A-A114E8A3A96E}">
-  <dimension ref="A1:C20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="27.26953125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -469,232 +417,274 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>20</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>45.897609500000002</v>
+      </c>
+      <c r="D2">
+        <v>-91.416754100000006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>45.410337499999997</v>
+      </c>
+      <c r="D3">
+        <v>-87.561259199999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>42.5888293</v>
+      </c>
+      <c r="D4">
+        <v>-85.847931000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>40.842376899999998</v>
+      </c>
+      <c r="D5">
+        <v>-89.145523600000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>41.586786400000001</v>
+      </c>
+      <c r="D6">
+        <v>-91.916969899999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>20</v>
+      </c>
+      <c r="B7">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>20</v>
-      </c>
-      <c r="B3">
-        <f xml:space="preserve"> B2+1</f>
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C7">
+        <v>39.3810766</v>
+      </c>
+      <c r="D7">
+        <v>-92.852966800000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>20</v>
+      </c>
+      <c r="B8">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>20</v>
-      </c>
-      <c r="B4">
-        <f t="shared" ref="B4:B21" si="0" xml:space="preserve"> B3+1</f>
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C8">
+        <v>37.425514700000001</v>
+      </c>
+      <c r="D8">
+        <v>-92.751634100000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>39.2061797</v>
+      </c>
+      <c r="D9">
+        <v>-96.539757899999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>20</v>
+      </c>
+      <c r="B10">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>20</v>
-      </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C10">
+        <v>38.420999199999997</v>
+      </c>
+      <c r="D10">
+        <v>-99.910723899999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>41.456044599999998</v>
+      </c>
+      <c r="D11">
+        <v>-100.5003664</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>43.8884404</v>
+      </c>
+      <c r="D12">
+        <v>-100.4832317</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>20</v>
+      </c>
+      <c r="B13">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>20</v>
-      </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="C13">
+        <v>45.734050199999999</v>
+      </c>
+      <c r="D13">
+        <v>-97.226894000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>42.493889699999997</v>
+      </c>
+      <c r="D14">
+        <v>-95.163862399999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>20</v>
+      </c>
+      <c r="B15">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>20</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="C15">
+        <v>46.489467599999998</v>
+      </c>
+      <c r="D15">
+        <v>-94.497418199999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>47.291017400000001</v>
+      </c>
+      <c r="D16">
+        <v>-101.67654659999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>20</v>
+      </c>
+      <c r="B17">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>20</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="C17">
+        <v>38.370201399999999</v>
+      </c>
+      <c r="D17">
+        <v>-88.607135200000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>40.040822499999997</v>
+      </c>
+      <c r="D18">
+        <v>-86.015121699999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>20</v>
+      </c>
+      <c r="B19">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>20</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="C19">
+        <v>43.484650899999998</v>
+      </c>
+      <c r="D19">
+        <v>-83.576897700000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>20</v>
-      </c>
-      <c r="B11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>20</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>20</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>20</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>20</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>20</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>20</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>10</v>
+      <c r="C20">
+        <v>39.9590101</v>
+      </c>
+      <c r="D20">
+        <v>-82.506513900000002</v>
       </c>
     </row>
   </sheetData>

--- a/MOEA/GPS_20_Hubs.xlsx
+++ b/MOEA/GPS_20_Hubs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkern\Documents\GitHub\BETO\MOEA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KernInternship\BETO\MOEA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78919502-1A4D-4F0D-8ED1-B9DD3439DAD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="3645" yWindow="1590" windowWidth="21600" windowHeight="12015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -50,7 +42,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -395,19 +387,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -421,7 +413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20</v>
       </c>
@@ -429,13 +421,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>45.897609500000002</v>
+        <v>42.5888293</v>
       </c>
       <c r="D2">
-        <v>-91.416754100000006</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-85.847931000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20</v>
       </c>
@@ -443,13 +435,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>45.410337499999997</v>
+        <v>40.842376899999998</v>
       </c>
       <c r="D3">
-        <v>-87.561259199999995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-89.145523600000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20</v>
       </c>
@@ -457,13 +449,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>42.5888293</v>
+        <v>41.586786400000001</v>
       </c>
       <c r="D4">
-        <v>-85.847931000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-91.916969899999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20</v>
       </c>
@@ -471,13 +463,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>40.842376899999998</v>
+        <v>38.370201399999999</v>
       </c>
       <c r="D5">
-        <v>-89.145523600000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-88.607135200000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20</v>
       </c>
@@ -485,13 +477,13 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>41.586786400000001</v>
+        <v>39.3810766</v>
       </c>
       <c r="D6">
-        <v>-91.916969899999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-92.852966800000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20</v>
       </c>
@@ -499,13 +491,13 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>39.3810766</v>
+        <v>39.9590101</v>
       </c>
       <c r="D7">
-        <v>-92.852966800000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-82.506513900000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20</v>
       </c>
@@ -513,13 +505,13 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>37.425514700000001</v>
+        <v>40.040822499999997</v>
       </c>
       <c r="D8">
-        <v>-92.751634100000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-86.015121699999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>20</v>
       </c>
@@ -527,13 +519,13 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>39.2061797</v>
+        <v>43.484650899999998</v>
       </c>
       <c r="D9">
-        <v>-96.539757899999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-83.576897700000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20</v>
       </c>
@@ -541,13 +533,13 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>38.420999199999997</v>
+        <v>45.734050199999999</v>
       </c>
       <c r="D10">
-        <v>-99.910723899999994</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-97.226894000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>20</v>
       </c>
@@ -555,13 +547,13 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>41.456044599999998</v>
+        <v>42.493889699999997</v>
       </c>
       <c r="D11">
-        <v>-100.5003664</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-95.163862399999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>20</v>
       </c>
@@ -569,13 +561,13 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>43.8884404</v>
+        <v>46.489467599999998</v>
       </c>
       <c r="D12">
-        <v>-100.4832317</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-94.497418199999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>20</v>
       </c>
@@ -583,13 +575,13 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>45.734050199999999</v>
+        <v>39.2061797</v>
       </c>
       <c r="D13">
-        <v>-97.226894000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-96.539757899999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>20</v>
       </c>
@@ -597,13 +589,13 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>42.493889699999997</v>
+        <v>38.420999199999997</v>
       </c>
       <c r="D14">
-        <v>-95.163862399999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-99.910723899999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20</v>
       </c>
@@ -611,13 +603,13 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>46.489467599999998</v>
+        <v>37.425514700000001</v>
       </c>
       <c r="D15">
-        <v>-94.497418199999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-92.751634100000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>20</v>
       </c>
@@ -625,13 +617,13 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>47.291017400000001</v>
+        <v>41.456044599999998</v>
       </c>
       <c r="D16">
-        <v>-101.67654659999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-100.5003664</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>20</v>
       </c>
@@ -639,13 +631,13 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>38.370201399999999</v>
+        <v>45.410337499999997</v>
       </c>
       <c r="D17">
-        <v>-88.607135200000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-87.561259199999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>20</v>
       </c>
@@ -653,13 +645,13 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>40.040822499999997</v>
+        <v>45.897609500000002</v>
       </c>
       <c r="D18">
-        <v>-86.015121699999995</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-91.416754100000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>20</v>
       </c>
@@ -667,13 +659,13 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>43.484650899999998</v>
+        <v>43.8884404</v>
       </c>
       <c r="D19">
-        <v>-83.576897700000004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-100.4832317</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -681,10 +673,10 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>39.9590101</v>
+        <v>47.291017400000001</v>
       </c>
       <c r="D20">
-        <v>-82.506513900000002</v>
+        <v>-101.67654659999999</v>
       </c>
     </row>
   </sheetData>
